--- a/xlsx/虚位元首_intext.xlsx
+++ b/xlsx/虚位元首_intext.xlsx
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>德國聯邦總統</t>
+    <t>德国联邦总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>意大利總統</t>
+    <t>意大利总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%80%BB%E7%BB%9F</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E6%80%BB%E7%BB%9F</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>孟加拉總統</t>
+    <t>孟加拉总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%80%BB%E7%BB%9F</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>東帝汶總統</t>
+    <t>东帝汶总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD%E5%9B%BD%E7%8E%8B</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E5%A5%B3%E7%8E%8B</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E5%9B%BD%E7%8E%8B</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%A4%A7%E5%85%AC</t>
   </si>
   <si>
-    <t>安道爾大公</t>
+    <t>安道尔大公</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5%E5%90%9B%E4%B8%BB</t>
